--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core-src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A812A-3297-4768-A739-BDCB63E314F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88318121-F444-4944-9C6F-7A512D35D8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16371" yWindow="0" windowWidth="16629" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="メッセージ一覧" sheetId="3" r:id="rId2"/>
+    <sheet name="リスト" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="種類">リスト!$A$2:$A$4</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -99,7 +100,109 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サンプル「{0}」</t>
+    <t>{0}：開始</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}：終了。経過時間=[{1}{2}]</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMGMSG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}がありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+  </si>
+  <si>
+    <t>メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスからビルドバスの取得に失敗しました。クラス=[{0}]</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -108,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="00000"/>
+    <numFmt numFmtId="176" formatCode="00000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -199,16 +302,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -329,6 +453,1406 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>KMGLOG</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■分類の種類</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>情報（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>情報を伝えるメッセージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>警告（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>W</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>処理を継続するか、確認が必要なメッセージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エラー（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>処理が停止するログメッセージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■連番の範囲</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>00000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>99999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■連番の区分け</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>domain</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>全般</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リフレクション</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…service</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…logic</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>infrastructure</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…exception</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…type</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…types</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…utils</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353787</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4082143" cy="7293429"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D1BA29-6C10-4336-9E03-5A7CC9C1BEF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6912430" y="495299"/>
+          <a:ext cx="4082143" cy="7293429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■メッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の例</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>KMGMSGI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>00000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■プリフィックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>KMGMSG</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1891,29 +3415,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.78515625" defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.78515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1942,15 +3466,15 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
+      <c r="C3" s="4">
+        <v>12000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="str">
-        <f>E1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3</f>
-        <v>KMGLOGI00000=サンプル「{0}」</v>
+      <c r="E3" s="5" t="str">
+        <f>$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3</f>
+        <v>KMGLOGI12000={0}：開始</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1958,10 +3482,19 @@
         <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4</f>
+        <v>KMGLOGI12001={0}：終了。経過時間=[{1}{2}]</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
@@ -1971,7 +3504,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -1981,7 +3514,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
@@ -1991,7 +3524,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
@@ -2001,7 +3534,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
@@ -2011,7 +3544,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
@@ -2021,7 +3554,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
@@ -2031,7 +3564,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
@@ -2041,7 +3574,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
@@ -2051,7 +3584,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
@@ -2061,7 +3594,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
@@ -2071,7 +3604,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
@@ -2081,7 +3614,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
@@ -2091,7 +3624,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
@@ -2101,7 +3634,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
@@ -2111,7 +3644,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
@@ -2121,7 +3654,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
@@ -2131,7 +3664,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
@@ -2141,7 +3674,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
@@ -2151,7 +3684,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
@@ -2161,7 +3694,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
@@ -2171,7 +3704,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
@@ -2181,7 +3714,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
@@ -2191,7 +3724,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
@@ -2201,7 +3734,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
@@ -2211,7 +3744,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
@@ -2221,7 +3754,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
@@ -2231,7 +3764,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
@@ -2241,7 +3774,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
@@ -2251,7 +3784,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
@@ -2261,7 +3794,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
@@ -2271,7 +3804,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
@@ -2281,7 +3814,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2300,6 +3833,625 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.9140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="4.75" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="13">
+        <v>11100</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
+        <v>KMGMSGE11100={0}がありません。</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36">
+      <c r="A4" s="12">
+        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13">
+        <v>11200</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" ref="E4:E36" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
+        <v>KMGMSGE11200=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="54">
+      <c r="A5" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="13">
+        <v>11201</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE11201=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="54">
+      <c r="A6" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13">
+        <v>11202</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" ref="E6" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
+        <v>KMGMSGE11202=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36">
+      <c r="A7" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13">
+        <v>11203</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE11203=メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36">
+      <c r="A8" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13">
+        <v>11204</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE11204=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36">
+      <c r="A9" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13">
+        <v>11205</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE11205=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="36">
+      <c r="A10" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13">
+        <v>11206</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE11206=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="36">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="13">
+        <v>11207</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE11207=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="36">
+      <c r="A12" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="13">
+        <v>11208</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE11208=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="36">
+      <c r="A13" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13">
+        <v>11209</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="54">
+      <c r="A14" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="13">
+        <v>11210</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="54">
+      <c r="A15" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13">
+        <v>11211</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" ref="E15" si="3">IF(D15="","",$E$1&amp;IF(B15="情報","I",IF(B15="警告","W","E"))&amp;TEXT(C15,"00000")&amp;"="&amp;D15)</f>
+        <v>KMGMSGE11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13">
+        <v>24000</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGMSGE24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="12">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="12">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B36" xr:uid="{5FE1378C-FB89-4E09-85A9-56F87EEB9AF1}">
+      <formula1>種類</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381CBA83-6CBB-4301-8D20-7404951A5D8A}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -2307,9 +4459,9 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core-src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88318121-F444-4944-9C6F-7A512D35D8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F6BC4-89DC-42B4-A70D-11D377B147EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -309,9 +309,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -324,13 +321,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3431,12 +3431,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3834,603 +3834,584 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.9140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="4.75" style="10"/>
+    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.9140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="4.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>11100</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="8" t="str">
         <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
         <v>KMGMSGE11100={0}がありません。</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36">
-      <c r="A4" s="12">
-        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
+    <row r="4" spans="1:5" ht="54">
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A35" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>11200</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E36" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
+      <c r="E4" s="8" t="str">
+        <f t="shared" ref="E4:E35" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
         <v>KMGMSGE11200=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>11201</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="E5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>KMGMSGE11201=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="54">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>11202</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="8" t="str">
         <f t="shared" ref="E6" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
         <v>KMGMSGE11202=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="36">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>11203</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>KMGMSGE11203=メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>11204</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>KMGMSGE11204=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="36">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>11205</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>KMGMSGE11205=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="36">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>11206</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>KMGMSGE11206=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="36">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>11207</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>KMGMSGE11207=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36">
-      <c r="A12" s="12">
+    <row r="12" spans="1:5" ht="54">
+      <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13">
-        <v>11208</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGMSGE11208=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="36">
-      <c r="A13" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="C12" s="11">
         <v>11209</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9" t="str">
+      <c r="E12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>KMGMSGE11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="54">
-      <c r="A14" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
+    <row r="13" spans="1:5" ht="54">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C13" s="11">
         <v>11210</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>KMGMSGE11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="54">
-      <c r="A15" s="12">
+    <row r="14" spans="1:5" ht="54">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11">
+        <v>11211</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f t="shared" ref="E14" si="3">IF(D14="","",$E$1&amp;IF(B14="情報","I",IF(B14="警告","W","E"))&amp;TEXT(C14,"00000")&amp;"="&amp;D14)</f>
+        <v>KMGMSGE11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="36">
+      <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="13">
-        <v>11211</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="9" t="str">
-        <f t="shared" ref="E15" si="3">IF(D15="","",$E$1&amp;IF(B15="情報","I",IF(B15="警告","W","E"))&amp;TEXT(C15,"00000")&amp;"="&amp;D15)</f>
-        <v>KMGMSGE11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="C15" s="11">
         <v>24000</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>KMGMSGE24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="12" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9" t="str">
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="9" t="str">
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="9" t="str">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9" t="str">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="12" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9" t="str">
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="12" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9" t="str">
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="12" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="9" t="str">
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="12" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9" t="str">
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="12" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9" t="str">
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="12" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9" t="str">
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="12" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="9" t="str">
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="12" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9" t="str">
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="12">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="12" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9" t="str">
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="12" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9" t="str">
+      <c r="C29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9" t="str">
+    <row r="30" spans="1:5">
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9" t="str">
+    <row r="31" spans="1:5">
+      <c r="A31" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9" t="str">
+    <row r="32" spans="1:5">
+      <c r="A32" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="9" t="str">
+    <row r="33" spans="1:5">
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="9" t="str">
+    <row r="34" spans="1:5">
+      <c r="A34" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9" t="str">
+    <row r="35" spans="1:5">
+      <c r="A35" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4441,7 +4422,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B36" xr:uid="{5FE1378C-FB89-4E09-85A9-56F87EEB9AF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B35" xr:uid="{5FE1378C-FB89-4E09-85A9-56F87EEB9AF1}">
       <formula1>種類</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core-src\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F6BC4-89DC-42B4-A70D-11D377B147EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2A867-8306-4EEA-A453-FC5DD7F1BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -202,6 +202,24 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}：エラー。経過時間=[{1}{2}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}：情報。経過時間=[{1}{2}]</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}：警告。経過時間=[{1}{2}]</t>
+    <rPh sb="4" eb="6">
+      <t>ケイコク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3415,18 +3433,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3501,30 +3520,57 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" ref="E5:E7" si="1">$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5</f>
+        <v>KMGLOGE12002={0}：エラー。経過時間=[{1}{2}]</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12003</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGLOGI12003={0}：情報。経過時間=[{1}{2}]</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12004</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGLOGW12004={0}：警告。経過時間=[{1}{2}]</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
@@ -3836,7 +3882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2A867-8306-4EEA-A453-FC5DD7F1BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1938B9-0761-427E-A956-D1E3DA30875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -206,21 +206,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{0}：エラー。経過時間=[{1}{2}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{0}：情報。経過時間=[{1}{2}]</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{0}：警告。経過時間=[{1}{2}]</t>
-    <rPh sb="4" eb="6">
-      <t>ケイコク</t>
-    </rPh>
+    <t>{0}：{1}。経過時間=[{2}{3}]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3437,7 +3423,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -3531,7 +3517,7 @@
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" ref="E5:E7" si="1">$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5</f>
-        <v>KMGLOGE12002={0}：エラー。経過時間=[{1}{2}]</v>
+        <v>KMGLOGE12002={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3546,11 +3532,11 @@
         <v>12003</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>KMGLOGI12003={0}：情報。経過時間=[{1}{2}]</v>
+        <v>KMGLOGI12003={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3565,11 +3551,11 @@
         <v>12004</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>KMGLOGW12004={0}：警告。経過時間=[{1}{2}]</v>
+        <v>KMGLOGW12004={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1938B9-0761-427E-A956-D1E3DA30875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D563BD67-FBF3-4FD1-93B9-8F3DFADAF7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KMGLOG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{0}：開始</t>
     <rPh sb="4" eb="6">
       <t>カイシ</t>
@@ -117,10 +113,6 @@
     <rPh sb="9" eb="11">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGMSG</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -207,6 +199,14 @@
   </si>
   <si>
     <t>{0}：{1}。経過時間=[{2}{3}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMGCORELOG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMGCOREGEN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,7 +427,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGLOGI</a:t>
+            <a:t>KMGCORELOGI</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -456,7 +456,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGLOG</a:t>
+            <a:t>KMG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CORE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>LOG</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1827,7 +1843,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGMSGI</a:t>
+            <a:t>KMGCOREGENI</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1856,7 +1872,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGMSG</a:t>
+            <a:t>KMGCOREGEN</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3423,7 +3439,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -3443,7 +3459,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3475,11 +3491,11 @@
         <v>12000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3</f>
-        <v>KMGLOGI12000={0}：開始</v>
+        <v>KMGCORELOGI12000={0}：開始</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3494,11 +3510,11 @@
         <v>12001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4</f>
-        <v>KMGLOGI12001={0}：終了。経過時間=[{1}{2}]</v>
+        <v>KMGCORELOGI12001={0}：終了。経過時間=[{1}{2}]</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3507,17 +3523,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>12002</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" ref="E5:E7" si="1">$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5</f>
-        <v>KMGLOGE12002={0}：{1}。経過時間=[{2}{3}]</v>
+        <v>KMGCORELOGE12002={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3532,11 +3548,11 @@
         <v>12003</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>KMGLOGI12003={0}：{1}。経過時間=[{2}{3}]</v>
+        <v>KMGCORELOGI12003={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3551,11 +3567,11 @@
         <v>12004</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>KMGLOGW12004={0}：{1}。経過時間=[{2}{3}]</v>
+        <v>KMGCORELOGW12004={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3872,7 +3888,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
@@ -3893,7 +3909,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3919,17 +3935,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="11">
         <v>11100</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
-        <v>KMGMSGE11100={0}がありません。</v>
+        <v>KMGCOREGENE11100={0}がありません。</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="54">
@@ -3938,17 +3954,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11">
         <v>11200</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" ref="E4:E35" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
-        <v>KMGMSGE11200=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+        <v>KMGCOREGENE11200=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54">
@@ -3957,17 +3973,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="11">
         <v>11201</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGMSGE11201=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+        <v>KMGCOREGENE11201=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="54">
@@ -3976,17 +3992,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="11">
         <v>11202</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" ref="E6" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
-        <v>KMGMSGE11202=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+        <v>KMGCOREGENE11202=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="36">
@@ -3995,17 +4011,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="11">
         <v>11203</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGMSGE11203=メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+        <v>KMGCOREGENE11203=メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36">
@@ -4014,17 +4030,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="11">
         <v>11204</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGMSGE11204=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+        <v>KMGCOREGENE11204=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="36">
@@ -4033,17 +4049,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="11">
         <v>11205</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGMSGE11205=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+        <v>KMGCOREGENE11205=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="36">
@@ -4052,17 +4068,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="11">
         <v>11206</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGMSGE11206=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+        <v>KMGCOREGENE11206=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="36">
@@ -4071,17 +4087,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11">
         <v>11207</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGMSGE11207=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+        <v>KMGCOREGENE11207=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="54">
@@ -4090,17 +4106,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="11">
         <v>11209</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGMSGE11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+        <v>KMGCOREGENE11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="54">
@@ -4109,17 +4125,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11">
         <v>11210</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGMSGE11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+        <v>KMGCOREGENE11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="54">
@@ -4128,17 +4144,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="11">
         <v>11211</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" ref="E14" si="3">IF(D14="","",$E$1&amp;IF(B14="情報","I",IF(B14="警告","W","E"))&amp;TEXT(C14,"00000")&amp;"="&amp;D14)</f>
-        <v>KMGMSGE11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+        <v>KMGCOREGENE11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="36">
@@ -4147,17 +4163,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="11">
         <v>24000</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>KMGMSGE24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
+        <v>KMGCOREGENE24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4166,7 +4182,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
@@ -4181,7 +4197,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -4196,7 +4212,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -4211,7 +4227,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -4226,7 +4242,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -4241,7 +4257,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
@@ -4256,7 +4272,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="10"/>
@@ -4271,7 +4287,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="10"/>
@@ -4286,7 +4302,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="10"/>
@@ -4301,7 +4317,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="10"/>
@@ -4316,7 +4332,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="10"/>
@@ -4331,7 +4347,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
@@ -4346,7 +4362,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="10"/>
@@ -4361,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="10"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D563BD67-FBF3-4FD1-93B9-8F3DFADAF7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B889EEC6-8BC2-40A0-A018-E1EFADB91E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ログ一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="メッセージ一覧" sheetId="3" r:id="rId2"/>
+    <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
+    <sheet name="ログ一覧" sheetId="1" r:id="rId2"/>
     <sheet name="リスト" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -118,9 +118,6 @@
   <si>
     <t>{0}がありません。</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラー</t>
   </si>
   <si>
     <t>メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</t>
@@ -202,11 +199,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KMGCORELOG</t>
+    <t>KMGCORE_LOG</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KMGCOREGEN</t>
+    <t>KMGCORE_GEN</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -358,18 +355,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>353787</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4082143" cy="7293429"/>
+    <xdr:ext cx="4082143" cy="5643337"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547799C9-B9DE-D033-A6A5-8C77D66EDB2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D1BA29-6C10-4336-9E03-5A7CC9C1BEF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -377,8 +374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5595258" y="495299"/>
-          <a:ext cx="4082143" cy="7293429"/>
+          <a:off x="14596837" y="484413"/>
+          <a:ext cx="4082143" cy="5643337"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -427,7 +424,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGCORELOGI</a:t>
+            <a:t>KMGCORE_GEN</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -456,103 +453,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMG</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CORE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>LOG</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■分類の種類</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>I</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報を伝えるメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>警告（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>W</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理を継続するか、確認が必要なメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>エラー（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理が停止するログメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>KMGCORE_GEN</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1774,18 +1676,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>353787</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4082143" cy="7293429"/>
+    <xdr:ext cx="4082143" cy="5732237"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D1BA29-6C10-4336-9E03-5A7CC9C1BEF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547799C9-B9DE-D033-A6A5-8C77D66EDB2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,8 +1695,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6912430" y="495299"/>
-          <a:ext cx="4082143" cy="7293429"/>
+          <a:off x="6716487" y="484413"/>
+          <a:ext cx="4082143" cy="5732237"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1843,7 +1745,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGCOREGENI</a:t>
+            <a:t>KMGCORE_LOG</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1872,87 +1774,24 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGCOREGEN</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■分類の種類</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報（</a:t>
+            <a:t>KMG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CORE_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>I</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報を伝えるメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>警告（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>W</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理を継続するか、確認が必要なメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>エラー（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>処理が停止するログメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>LOG</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3432,8 +3271,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -3444,436 +3283,490 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.4140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.25" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="4.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4">
+      <c r="A3" s="10">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11">
+        <v>11100</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3</f>
+        <v>KMGCORE_GEN11100={0}がありません。</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36">
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A35" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>11200</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4</f>
+        <v>KMGCORE_GEN11200=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36">
+      <c r="A5" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>11201</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5</f>
+        <v>KMGCORE_GEN11201=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <v>12000</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B6" s="11">
+        <v>11202</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6</f>
+        <v>KMGCORE_GEN11202=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>11203</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f>$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7</f>
+        <v>KMGCORE_GEN11203=メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>11204</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f>$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8</f>
+        <v>KMGCORE_GEN11204=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>11205</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9</f>
+        <v>KMGCORE_GEN11205=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11206</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f>$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10</f>
+        <v>KMGCORE_GEN11206=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="str">
-        <f>$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3</f>
-        <v>KMGCORELOGI12000={0}：開始</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>12001</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B11" s="11">
+        <v>11207</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f>$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11</f>
+        <v>KMGCORE_GEN11207=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36">
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="str">
-        <f>$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4</f>
-        <v>KMGCORELOGI12001={0}：終了。経過時間=[{1}{2}]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B12" s="11">
+        <v>11209</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12</f>
+        <v>KMGCORE_GEN11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <v>11210</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13</f>
+        <v>KMGCORE_GEN11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C5" s="4">
-        <v>12002</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B14" s="11">
+        <v>11211</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14</f>
+        <v>KMGCORE_GEN11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
+        <v>24000</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15</f>
+        <v>KMGCORE_GEN24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8" t="str">
+        <f>IF(C16="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8" t="str">
+        <f>IF(C17="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8" t="str">
+        <f>IF(C18="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8" t="str">
+        <f>IF(C19="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8" t="str">
+        <f>IF(C20="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="str">
-        <f t="shared" ref="E5:E7" si="1">$E$1&amp;IF(B5="情報","I",IF(B5="警告","W","E"))&amp;TEXT(C5,"00000")&amp;"="&amp;D5</f>
-        <v>KMGCORELOGE12002={0}：{1}。経過時間=[{2}{3}]</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>12003</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCORELOGI12003={0}：{1}。経過時間=[{2}{3}]</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>12004</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCORELOGW12004={0}：{1}。経過時間=[{2}{3}]</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8" t="str">
+        <f>IF(C21="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8" t="str">
+        <f>IF(C22="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8" t="str">
+        <f>IF(C23="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="8" t="str">
+        <f>IF(C24="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="8" t="str">
+        <f>IF(C25="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="8" t="str">
+        <f>IF(C26="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8" t="str">
+        <f>IF(C27="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8" t="str">
+        <f>IF(C28="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8" t="str">
+        <f>IF(C29="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8" t="str">
+        <f>IF(C30="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8" t="str">
+        <f>IF(C31="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8" t="str">
+        <f>IF(C32="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8" t="str">
+        <f>IF(C33="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8" t="str">
+        <f>IF(C34="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="5"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8" t="str">
+        <f>IF(C35="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B36" xr:uid="{45CCEC75-5A17-464D-BBC8-7B39F46B2C4E}">
-      <formula1>種類</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3881,8 +3774,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -3893,587 +3786,382 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.9140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="4.75" style="9"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4">
+        <v>12000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3</f>
+        <v>KMGCORE_LOG12000={0}：開始</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>12001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" ref="D4:D7" si="1">$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4</f>
+        <v>KMGCORE_LOG12001={0}：終了。経過時間=[{1}{2}]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGCORE_LOG12002={0}：{1}。経過時間=[{2}{3}]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12003</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGCORE_LOG12003={0}：{1}。経過時間=[{2}{3}]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>12004</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGCORE_LOG12004={0}：{1}。経過時間=[{2}{3}]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C3" s="11">
-        <v>11100</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="str">
-        <f>IF(D3="","",$E$1&amp;IF(B3="情報","I",IF(B3="警告","W","E"))&amp;TEXT(C3,"00000")&amp;"="&amp;D3)</f>
-        <v>KMGCOREGENE11100={0}がありません。</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="54">
-      <c r="A4" s="10">
-        <f t="shared" ref="A4:A35" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11">
-        <v>11200</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="str">
-        <f t="shared" ref="E4:E35" si="1">IF(D4="","",$E$1&amp;IF(B4="情報","I",IF(B4="警告","W","E"))&amp;TEXT(C4,"00000")&amp;"="&amp;D4)</f>
-        <v>KMGCOREGENE11200=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="54">
-      <c r="A5" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11">
-        <v>11201</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCOREGENE11201=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="54">
-      <c r="A6" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11">
-        <v>11202</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f t="shared" ref="E6" si="2">IF(D6="","",$E$1&amp;IF(B6="情報","I",IF(B6="警告","W","E"))&amp;TEXT(C6,"00000")&amp;"="&amp;D6)</f>
-        <v>KMGCOREGENE11202=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="36">
-      <c r="A7" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11">
-        <v>11203</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCOREGENE11203=メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="36">
-      <c r="A8" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11">
-        <v>11204</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCOREGENE11204=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="36">
-      <c r="A9" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11">
-        <v>11205</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCOREGENE11205=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="36">
-      <c r="A10" s="10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11">
-        <v>11206</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCOREGENE11206=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="36">
-      <c r="A11" s="10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11">
-        <v>11207</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCOREGENE11207=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="54">
-      <c r="A12" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11">
-        <v>11209</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCOREGENE11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="54">
-      <c r="A13" s="10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11">
-        <v>11210</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCOREGENE11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="54">
-      <c r="A14" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11">
-        <v>11211</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8" t="str">
-        <f t="shared" ref="E14" si="3">IF(D14="","",$E$1&amp;IF(B14="情報","I",IF(B14="警告","W","E"))&amp;TEXT(C14,"00000")&amp;"="&amp;D14)</f>
-        <v>KMGCOREGENE11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="36">
-      <c r="A15" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="11">
-        <v>24000</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>KMGCOREGENE24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="10">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="10">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="10">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="10">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="10">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="10">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="10">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="10">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="10">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="10">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="10">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="10">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B35" xr:uid="{5FE1378C-FB89-4E09-85A9-56F87EEB9AF1}">
-      <formula1>種類</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B889EEC6-8BC2-40A0-A018-E1EFADB91E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4010A-AA03-45B3-9504-817D4077C71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -329,10 +329,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3291,11 +3291,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
@@ -3326,13 +3326,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="str">
-        <f>$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3</f>
+        <f t="shared" ref="D3:D15" si="0">$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3</f>
         <v>KMGCORE_GEN11100={0}がありません。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="10">
-        <f t="shared" ref="A4:A35" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A35" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="11">
@@ -3342,13 +3342,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="str">
-        <f>$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11200=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36">
       <c r="A5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="11">
@@ -3358,13 +3358,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="str">
-        <f>$D$1&amp;TEXT(B5,"00000")&amp;"="&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11201=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36">
       <c r="A6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="11">
@@ -3374,13 +3374,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="8" t="str">
-        <f>$D$1&amp;TEXT(B6,"00000")&amp;"="&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11202=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36">
       <c r="A7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="11">
@@ -3390,13 +3390,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>$D$1&amp;TEXT(B7,"00000")&amp;"="&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11203=メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36">
       <c r="A8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="11">
@@ -3406,13 +3406,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="8" t="str">
-        <f>$D$1&amp;TEXT(B8,"00000")&amp;"="&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11204=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36">
       <c r="A9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="11">
@@ -3422,13 +3422,13 @@
         <v>15</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>$D$1&amp;TEXT(B9,"00000")&amp;"="&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11205=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36">
       <c r="A10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="11">
@@ -3438,13 +3438,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f>$D$1&amp;TEXT(B10,"00000")&amp;"="&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11206=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36">
       <c r="A11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="11">
@@ -3454,13 +3454,13 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f>$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11207=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
       <c r="A12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="11">
@@ -3470,13 +3470,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f>$D$1&amp;TEXT(B12,"00000")&amp;"="&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
       <c r="A13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="11">
@@ -3486,13 +3486,13 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>$D$1&amp;TEXT(B13,"00000")&amp;"="&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
       <c r="A14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="11">
@@ -3502,13 +3502,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="str">
-        <f>$D$1&amp;TEXT(B14,"00000")&amp;"="&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="11">
@@ -3518,13 +3518,13 @@
         <v>17</v>
       </c>
       <c r="D15" s="8" t="str">
-        <f>$D$1&amp;TEXT(B15,"00000")&amp;"="&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>KMGCORE_GEN24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="11"/>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="11"/>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="11"/>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="11"/>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="11"/>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="11"/>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="11"/>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="11"/>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="11"/>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="11"/>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="11"/>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="11"/>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="11"/>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="11"/>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="10"/>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="10"/>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="10"/>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="10"/>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="10"/>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="10"/>
@@ -3793,11 +3793,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4010A-AA03-45B3-9504-817D4077C71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4836BDBD-B073-47CB-A00D-7F0F62032358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>KMGCORE_GEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1681,7 +1685,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4082143" cy="5732237"/>
+    <xdr:ext cx="4082143" cy="7865837"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -1696,7 +1700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6716487" y="484413"/>
-          <a:ext cx="4082143" cy="5732237"/>
+          <a:ext cx="4082143" cy="7865837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,24 +2987,727 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>KMG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コア以外</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…KMG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>シリーズ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>起動時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…KMG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>シリーズ以外</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共通</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>桁目「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>起動時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3844,7 +4551,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f t="shared" ref="D4:D7" si="1">$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4</f>
+        <f t="shared" ref="D4:D8" si="1">$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4</f>
         <v>KMGCORE_LOG12001={0}：終了。経過時間=[{1}{2}]</v>
       </c>
     </row>
@@ -3901,9 +4608,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="1">
+        <v>91100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>KMGCORE_LOG91100={0}</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4836BDBD-B073-47CB-A00D-7F0F62032358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30AE4D3-2114-4CBC-8E6A-F0A4FA814D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -210,6 +210,10 @@
     <t>{0}</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>区分判定パターンに要素名が含まれていません。判定対象の文字列=[{0}]、区分判定パターン=[{1}]、要素名=[{2}]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -307,13 +311,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -336,6 +338,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3990,481 +3995,485 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.4140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.25" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="4.75" style="9"/>
+    <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.4140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.25" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="4.75" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>11100</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="6" t="str">
         <f t="shared" ref="D3:D15" si="0">$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3</f>
         <v>KMGCORE_GEN11100={0}がありません。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <f t="shared" ref="A4:A35" si="1">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>11200</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11200=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>11201</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11201=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>11202</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="str">
+      <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11202=フィールドの値の取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>11203</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11203=メソッドの取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>11204</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11204=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>11205</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11205=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>11206</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11206=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>11207</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11207=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>11209</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>11210</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>11211</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KMGCORE_GEN11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10">
+    <row r="15" spans="1:4" ht="36">
+      <c r="A15" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
+        <v>23000</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGCORE_GEN23000=区分判定パターンに要素名が含まれていません。判定対象の文字列=[{0}]、区分判定パターン=[{1}]、要素名=[{2}]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
         <v>24000</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="D16" s="6" t="str">
+        <f t="shared" ref="D16" si="2">$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16</f>
         <v>KMGCORE_GEN24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8" t="str">
-        <f>IF(C16="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8" t="str">
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="str">
         <f>IF(C17="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B17,"00000")&amp;"="&amp;C17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8" t="str">
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6" t="str">
         <f>IF(C18="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B18,"00000")&amp;"="&amp;C18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8" t="str">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6" t="str">
         <f>IF(C19="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B19,"00000")&amp;"="&amp;C19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8" t="str">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6" t="str">
         <f>IF(C20="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B20,"00000")&amp;"="&amp;C20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8" t="str">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6" t="str">
         <f>IF(C21="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B21,"00000")&amp;"="&amp;C21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8" t="str">
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6" t="str">
         <f>IF(C22="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B22,"00000")&amp;"="&amp;C22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="8" t="str">
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6" t="str">
         <f>IF(C23="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B23,"00000")&amp;"="&amp;C23)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="8" t="str">
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6" t="str">
         <f>IF(C24="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B24,"00000")&amp;"="&amp;C24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="8" t="str">
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6" t="str">
         <f>IF(C25="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B25,"00000")&amp;"="&amp;C25)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8" t="str">
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6" t="str">
         <f>IF(C26="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B26,"00000")&amp;"="&amp;C26)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8" t="str">
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6" t="str">
         <f>IF(C27="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10">
+      <c r="A28" s="8">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8" t="str">
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6" t="str">
         <f>IF(C28="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B28,"00000")&amp;"="&amp;C28)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10">
+      <c r="A29" s="8">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8" t="str">
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="6" t="str">
         <f>IF(C29="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10">
+      <c r="A30" s="8">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8" t="str">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6" t="str">
         <f>IF(C30="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B30,"00000")&amp;"="&amp;C30)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10">
+      <c r="A31" s="8">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="8" t="str">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="6" t="str">
         <f>IF(C31="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B31,"00000")&amp;"="&amp;C31)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10">
+      <c r="A32" s="8">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8" t="str">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="6" t="str">
         <f>IF(C32="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B32,"00000")&amp;"="&amp;C32)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10">
+      <c r="A33" s="8">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8" t="str">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6" t="str">
         <f>IF(C33="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B33,"00000")&amp;"="&amp;C33)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10">
+      <c r="A34" s="8">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="8" t="str">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6" t="str">
         <f>IF(C34="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="8" t="str">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="6" t="str">
         <f>IF(C35="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v/>
       </c>
@@ -4495,17 +4504,17 @@
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4516,10 +4525,10 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4528,14 +4537,14 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>12000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f>$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3</f>
+      <c r="D3" s="6" t="str">
+        <f>IF(C3&lt;&gt;"",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3,"")</f>
         <v>KMGCORE_LOG12000={0}：開始</v>
       </c>
     </row>
@@ -4544,14 +4553,14 @@
         <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>12001</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="str">
-        <f t="shared" ref="D4:D8" si="1">$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4</f>
+      <c r="D4" s="6" t="str">
+        <f t="shared" ref="D4:D36" si="1">IF(C4&lt;&gt;"",$D$1&amp;TEXT(B4,"00000")&amp;"="&amp;C4,"")</f>
         <v>KMGCORE_LOG12001={0}：終了。経過時間=[{1}{2}]</v>
       </c>
     </row>
@@ -4560,13 +4569,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>12002</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>KMGCORE_LOG12002={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
@@ -4576,13 +4585,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>12003</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>KMGCORE_LOG12003={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
@@ -4592,13 +4601,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>12004</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>KMGCORE_LOG12004={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
@@ -4611,10 +4620,10 @@
       <c r="B8" s="1">
         <v>91100</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>KMGCORE_LOG91100={0}</v>
       </c>
@@ -4625,8 +4634,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
@@ -4634,8 +4646,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
@@ -4643,8 +4658,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
@@ -4652,8 +4670,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
@@ -4661,8 +4682,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
@@ -4670,8 +4694,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
@@ -4679,8 +4706,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
@@ -4688,8 +4718,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
@@ -4697,8 +4730,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
@@ -4706,8 +4742,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
@@ -4715,8 +4754,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
@@ -4724,8 +4766,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
@@ -4733,8 +4778,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
@@ -4742,8 +4790,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
@@ -4751,8 +4802,11 @@
         <v>21</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
@@ -4760,8 +4814,11 @@
         <v>22</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
@@ -4769,8 +4826,11 @@
         <v>23</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
@@ -4778,8 +4838,11 @@
         <v>24</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
@@ -4787,8 +4850,11 @@
         <v>25</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
@@ -4796,8 +4862,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
@@ -4805,8 +4874,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
@@ -4814,8 +4886,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
@@ -4823,8 +4898,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
@@ -4832,8 +4910,11 @@
         <v>30</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
@@ -4841,8 +4922,11 @@
         <v>31</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
@@ -4850,8 +4934,11 @@
         <v>32</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
@@ -4859,8 +4946,11 @@
         <v>33</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
@@ -4868,8 +4958,11 @@
         <v>34</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4886,9 +4979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381CBA83-6CBB-4301-8D20-7404951A5D8A}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30AE4D3-2114-4CBC-8E6A-F0A4FA814D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B0C9D-94A6-414F-B611-471A932E3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="2430" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -210,10 +210,6 @@
     <t>{0}</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>区分判定パターンに要素名が含まれていません。判定対象の文字列=[{0}]、区分判定パターン=[{1}]、要素名=[{2}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -311,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -338,9 +334,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4218,20 +4211,20 @@
         <v>KMGCORE_GEN11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36">
+    <row r="15" spans="1:4">
       <c r="A15" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="12">
-        <v>23000</v>
+      <c r="B15" s="9">
+        <v>24000</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>KMGCORE_GEN23000=区分判定パターンに要素名が含まれていません。判定対象の文字列=[{0}]、区分判定パターン=[{1}]、要素名=[{2}]</v>
+        <v>KMGCORE_GEN24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4239,15 +4232,11 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="9">
-        <v>24000</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="6" t="str">
-        <f t="shared" ref="D16" si="2">$D$1&amp;TEXT(B16,"00000")&amp;"="&amp;C16</f>
-        <v>KMGCORE_GEN24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
+        <f>IF(C16="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B16,"00000")&amp;"="&amp;C16)</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4548,7 +4537,7 @@
         <v>KMGCORE_LOG12000={0}：開始</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="36">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
         <v>2</v>
@@ -4564,7 +4553,7 @@
         <v>KMGCORE_LOG12001={0}：終了。経過時間=[{1}{2}]</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="36">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4580,7 +4569,7 @@
         <v>KMGCORE_LOG12002={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4596,7 +4585,7 @@
         <v>KMGCORE_LOG12003={0}：{1}。経過時間=[{2}{3}]</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="36">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>

--- a/doc/メッセージ一覧.xlsx
+++ b/doc/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B0C9D-94A6-414F-B611-471A932E3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCFF240-373F-4AD2-A5C0-CB8AD6658DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2430" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5920" yWindow="7160" windowWidth="29690" windowHeight="13670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -3977,7 +3977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF97D9F6-BEAA-4560-9F4A-BABE490C6C7B}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -4031,13 +4031,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f t="shared" ref="D3:D15" si="0">$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3</f>
+        <f t="shared" ref="D3:D14" si="0">$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3</f>
         <v>KMGCORE_GEN11100={0}がありません。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A35" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A34" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -4153,14 +4153,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>11207</v>
+        <v>11209</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>KMGCORE_GEN11207=メソッドの値の取得に失敗しました。メソッド名=[{0}]、対象のクラス=[{1}]</v>
+        <v>KMGCORE_GEN11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
@@ -4169,14 +4169,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="9">
-        <v>11209</v>
+        <v>11210</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>KMGCORE_GEN11209=フィールドの取得に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+        <v>KMGCORE_GEN11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
@@ -4185,30 +4185,30 @@
         <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>11210</v>
+        <v>11211</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>KMGCORE_GEN11210=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="36">
+        <v>KMGCORE_GEN11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="9">
-        <v>11211</v>
+        <v>24000</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>KMGCORE_GEN11211=フィールドの値の設定に失敗しました。フィールド名=[{0}]、対象のクラス=[{1}]、最後に取得したフィールド=[{2}]</v>
+        <v>KMGCORE_GEN24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4216,15 +4216,11 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="9">
-        <v>24000</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGCORE_GEN24000=クラスからビルドバスの取得に失敗しました。クラス=[{0}]</v>
+        <f>IF(C15="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B15,"00000")&amp;"="&amp;C15)</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4388,7 +4384,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6" t="str">
         <f>IF(C29="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B29,"00000")&amp;"="&amp;C29)</f>
@@ -4452,18 +4448,6 @@
       <c r="C34" s="8"/>
       <c r="D34" s="6" t="str">
         <f>IF(C34="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6" t="str">
-        <f>IF(C35="","",$D$1&amp;IF(#REF!="情報","I",IF(#REF!="警告","W","E"))&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v/>
       </c>
     </row>
